--- a/research_code/weights/Models_Performance_Summary_V1.0.xlsx
+++ b/research_code/weights/Models_Performance_Summary_V1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\osmahus\Code\DF\Final_V2.0\WPT-ViT\research_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\osmahus\Code\DF\Final_V2.0\WPT-ViT\research_code\weights\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D0B4A06-96D0-4DBD-98CE-736F0336FC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76A9990-A71D-4C66-9845-EAE2D81679B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D073A67-87EE-4B65-AD87-12E0353C014E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{6D073A67-87EE-4B65-AD87-12E0353C014E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>wavelet_fun</t>
   </si>
@@ -78,9 +78,6 @@
     <t>db2</t>
   </si>
   <si>
-    <t>VITWPT</t>
-  </si>
-  <si>
     <t xml:space="preserve">encoder_levels </t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>Model Name</t>
   </si>
   <si>
-    <t>Model type</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -150,9 +144,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
     <t>Total Parameters</t>
   </si>
   <si>
@@ -187,6 +178,12 @@
   </si>
   <si>
     <t>Least Overfitting</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>medium overfitting</t>
   </si>
 </sst>
 </file>
@@ -322,7 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -384,6 +381,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -725,779 +725,820 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B3F401-ED3A-4696-AE60-371C01B3963F}">
-  <dimension ref="A2:AD11"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="13" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M24" sqref="M24"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="7" customWidth="1"/>
-    <col min="22" max="22" width="2.5703125" customWidth="1"/>
-    <col min="23" max="24" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="7" customWidth="1"/>
+    <col min="21" max="21" width="2.5703125" customWidth="1"/>
+    <col min="22" max="23" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:30" s="10" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+    <row r="1" spans="1:29" s="10" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+    </row>
+    <row r="3" spans="1:29" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
         <v>0</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J3" s="3">
+        <v>32</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="3" t="str">
+        <f t="shared" ref="L3:L9" si="0">"WPT-ViT_"&amp;B$2&amp;B3&amp;"_"&amp;C$2&amp;C3&amp;"_"&amp;D$2&amp;D3&amp;"_"&amp;E$2&amp;E3&amp;"_"&amp;F$2&amp;F3&amp;"_"&amp;G$2&amp;G3&amp;"_"&amp;I$2&amp;I3&amp;"_"&amp;J$2&amp;J3&amp;"_"&amp;K$2&amp;K3</f>
+        <v>WPT-ViT_haar_L3_P1_H16_E2_S0_B1000_D32_CIFAKE</v>
+      </c>
+      <c r="M3" s="4">
+        <v>80978</v>
+      </c>
+      <c r="N3" s="4">
+        <v>200</v>
+      </c>
+      <c r="O3" s="12">
+        <v>5.5914351851851854E-2</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0.92169999999999996</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>188</v>
+      </c>
+      <c r="R3" s="6">
+        <v>0.91890000000000005</v>
+      </c>
+      <c r="S3" s="6">
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="T3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="4"/>
+    </row>
+    <row r="4" spans="1:29" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="18" t="s">
+      <c r="E4" s="3">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3">
         <v>2</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="3">
+        <v>32</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>WPT-ViT_db2_L3_P1_H18_E2_S0_B1000_D32_CIFAKE</v>
+      </c>
+      <c r="M4" s="4">
+        <v>396038</v>
+      </c>
+      <c r="N4" s="4">
+        <v>200</v>
+      </c>
+      <c r="O4" s="12">
+        <v>6.8622685185185189E-2</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>152</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0.93959999999999999</v>
+      </c>
+      <c r="T4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="4"/>
+    </row>
+    <row r="5" spans="1:29" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
         <v>18</v>
       </c>
-      <c r="N2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="18" t="s">
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3">
+        <v>500</v>
+      </c>
+      <c r="J5" s="3">
+        <v>32</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>WPT-ViT_db2_L3_P1_H18_E2_S0_B500_D32_CIFAKE</v>
+      </c>
+      <c r="M5" s="4">
+        <v>396038</v>
+      </c>
+      <c r="N5" s="4">
+        <v>200</v>
+      </c>
+      <c r="O5" s="12">
+        <v>6.9155092592592587E-2</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0.93110000000000004</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>171</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0.93110000000000004</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0.93479999999999996</v>
+      </c>
+      <c r="T5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="4"/>
+    </row>
+    <row r="6" spans="1:29" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
+        <v>500</v>
+      </c>
+      <c r="J6" s="3">
+        <v>32</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>WPT-ViT_db2_L3_P1_H18_E1_S0_B500_D32_CIFAKE</v>
+      </c>
+      <c r="M6" s="4">
+        <v>207686</v>
+      </c>
+      <c r="N6" s="4">
+        <v>200</v>
+      </c>
+      <c r="O6" s="12">
+        <v>4.4108796296296299E-2</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0.86880000000000002</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>60</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0.86880000000000002</v>
+      </c>
+      <c r="S6" s="6">
+        <v>0.90659999999999996</v>
+      </c>
+      <c r="T6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="4"/>
+    </row>
+    <row r="7" spans="1:29" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
         <v>5</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="3">
+        <v>32</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>WPT-ViT_db2_L3_P1_H18_E1_S0_B1000_D32_CIFAKE</v>
+      </c>
+      <c r="M7" s="4">
+        <v>207686</v>
+      </c>
+      <c r="N7" s="4">
+        <v>200</v>
+      </c>
+      <c r="O7" s="12">
+        <v>4.2245370370370371E-2</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0.92420000000000002</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>176</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0.92420000000000002</v>
+      </c>
+      <c r="S7" s="6">
+        <v>0.92359999999999998</v>
+      </c>
+      <c r="T7" s="4"/>
+      <c r="V7" s="4">
+        <v>50</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="X7" s="12">
+        <v>4.7395833333333331E-2</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>0.92510000000000003</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>210</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>0.92510000000000003</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>0.92720000000000002</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="R2" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="T2" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="U2" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-    </row>
-    <row r="4" spans="1:30" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="E4" s="3">
+      <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="3">
-        <v>16</v>
-      </c>
-      <c r="G4" s="3">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K4" s="3">
-        <v>32</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="3" t="str">
-        <f t="shared" ref="M4:M11" si="0">B4&amp;"_"&amp;C$3&amp;C4&amp;"_"&amp;D$3&amp;D4&amp;"_"&amp;E$3&amp;E4&amp;"_"&amp;F$3&amp;F4&amp;"_"&amp;G$3&amp;G4&amp;"_"&amp;H$3&amp;H4&amp;"_"&amp;J$3&amp;J4&amp;"_"&amp;K$3&amp;K4&amp;"_"&amp;L$3&amp;L4</f>
-        <v>VITWPT_haar_L3_P1_H16_E2_S0_B1000_D32_RVSF</v>
-      </c>
-      <c r="N4" s="4">
-        <v>80978</v>
-      </c>
-      <c r="O4" s="4">
-        <v>200</v>
-      </c>
-      <c r="P4" s="12">
-        <v>6.581018518518518E-2</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>0.92330000000000001</v>
-      </c>
-      <c r="R4" s="3">
-        <v>171</v>
-      </c>
-      <c r="S4" s="6">
-        <v>0.92</v>
-      </c>
-      <c r="T4" s="6">
-        <v>0.91610000000000003</v>
-      </c>
-      <c r="U4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="4"/>
-    </row>
-    <row r="5" spans="1:30" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="E8" s="3">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3">
         <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>16</v>
-      </c>
-      <c r="G5" s="3">
-        <v>2</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K5" s="3">
-        <v>32</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>VITWPT_haar_L3_P1_H16_E2_S0_B1000_D32_CIFAKE</v>
-      </c>
-      <c r="N5" s="4">
-        <v>80978</v>
-      </c>
-      <c r="O5" s="4">
-        <v>200</v>
-      </c>
-      <c r="P5" s="12">
-        <v>5.5914351851851854E-2</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>0.92169999999999996</v>
-      </c>
-      <c r="R5" s="3">
-        <v>188</v>
-      </c>
-      <c r="S5" s="6">
-        <v>0.91890000000000005</v>
-      </c>
-      <c r="T5" s="6">
-        <v>0.92149999999999999</v>
-      </c>
-      <c r="U5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="4"/>
-    </row>
-    <row r="6" spans="1:30" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>18</v>
-      </c>
-      <c r="G6" s="3">
-        <v>2</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K6" s="3">
-        <v>32</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>VITWPT_db2_L3_P1_H18_E2_S0_B1000_D32_CIFAKE</v>
-      </c>
-      <c r="N6" s="4">
-        <v>396038</v>
-      </c>
-      <c r="O6" s="4">
-        <v>200</v>
-      </c>
-      <c r="P6" s="12">
-        <v>6.5555555555555561E-2</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>0.92689999999999995</v>
-      </c>
-      <c r="R6" s="3">
-        <v>195</v>
-      </c>
-      <c r="S6" s="6">
-        <v>0.92689999999999995</v>
-      </c>
-      <c r="T6" s="6">
-        <v>0.92710000000000004</v>
-      </c>
-      <c r="U6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="4"/>
-    </row>
-    <row r="7" spans="1:30" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>18</v>
-      </c>
-      <c r="G7" s="3">
-        <v>2</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3">
-        <v>500</v>
-      </c>
-      <c r="K7" s="3">
-        <v>32</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>VITWPT_db2_L3_P1_H18_E2_S0_B500_D32_CIFAKE</v>
-      </c>
-      <c r="N7" s="4">
-        <v>396038</v>
-      </c>
-      <c r="O7" s="4">
-        <v>200</v>
-      </c>
-      <c r="P7" s="12">
-        <v>6.9155092592592587E-2</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>0.93110000000000004</v>
-      </c>
-      <c r="R7" s="3">
-        <v>171</v>
-      </c>
-      <c r="S7" s="6">
-        <v>0.93110000000000004</v>
-      </c>
-      <c r="T7" s="6">
-        <v>0.93479999999999996</v>
-      </c>
-      <c r="U7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="4"/>
-    </row>
-    <row r="8" spans="1:30" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>18</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>32</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>WPT-ViT_db2_L3_P1_H18_E1_S1_B1000_D32_CIFAKE</v>
+      </c>
+      <c r="M8" s="4">
+        <v>201854</v>
+      </c>
+      <c r="N8" s="4">
+        <v>200</v>
+      </c>
+      <c r="O8" s="12">
+        <v>1.8425925925925925E-2</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>190</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="S8" s="6">
+        <v>0.92049999999999998</v>
+      </c>
+      <c r="T8" s="4"/>
+      <c r="V8" s="4">
+        <v>50</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="X8" s="12">
+        <v>2.2581018518518518E-2</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>0.92059999999999997</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>205</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>0.92059999999999997</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>0.93210000000000004</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>32</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>WPT-ViT_db2_L3_P1_H18_E1_S0_B2000_D32_CIFAKE</v>
+      </c>
+      <c r="M9" s="4">
+        <v>207686</v>
+      </c>
+      <c r="N9" s="4">
+        <v>200</v>
+      </c>
+      <c r="O9" s="12">
+        <v>4.3564814814814813E-2</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0.91459999999999997</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>200</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0.91459999999999997</v>
+      </c>
+      <c r="S9" s="6">
+        <v>0.92230000000000001</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V9" s="4">
+        <v>50</v>
+      </c>
+      <c r="W9" s="4"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="4"/>
+    </row>
+    <row r="10" spans="1:29" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>32</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="3" t="str">
+        <f>"WPT-ViT_"&amp;B$2&amp;B10&amp;"_"&amp;C$2&amp;C10&amp;"_"&amp;D$2&amp;D10&amp;"_"&amp;E$2&amp;E10&amp;"_"&amp;F$2&amp;F10&amp;"_"&amp;G$2&amp;G10&amp;"_"&amp;I$2&amp;I10&amp;"_"&amp;J$2&amp;J10&amp;"_"&amp;K$2&amp;K10</f>
+        <v>WPT-ViT_haar_L3_P1_H16_E2_S0_B1000_D32_RVSF</v>
+      </c>
+      <c r="M10" s="4">
+        <v>80978</v>
+      </c>
+      <c r="N10" s="4">
+        <v>200</v>
+      </c>
+      <c r="O10" s="12">
+        <v>6.581018518518518E-2</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0.92330000000000001</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>171</v>
+      </c>
+      <c r="R10" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="S10" s="6">
+        <v>0.91610000000000003</v>
+      </c>
+      <c r="T10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="4"/>
+    </row>
+    <row r="11" spans="1:29" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>18</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="J11" s="3">
         <v>32</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>VITWPT_db2_L3_P1_H18_E1_S0_B500_D32_CIFAKE</v>
-      </c>
-      <c r="N8" s="4">
+      <c r="K11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="3" t="str">
+        <f>"WPT-ViT_"&amp;B$2&amp;B11&amp;"_"&amp;C$2&amp;C11&amp;"_"&amp;D$2&amp;D11&amp;"_"&amp;E$2&amp;E11&amp;"_"&amp;F$2&amp;F11&amp;"_"&amp;G$2&amp;G11&amp;"_"&amp;I$2&amp;I11&amp;"_"&amp;J$2&amp;J11&amp;"_"&amp;K$2&amp;K11</f>
+        <v>WPT-ViT_db2_L3_P1_H18_E1_S0_B500_D32_RVSF</v>
+      </c>
+      <c r="M11" s="4">
         <v>207686</v>
       </c>
-      <c r="O8" s="4">
+      <c r="N11" s="4">
         <v>200</v>
       </c>
-      <c r="P8" s="12">
-        <v>4.4108796296296299E-2</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>0.86880000000000002</v>
-      </c>
-      <c r="R8" s="3">
-        <v>60</v>
-      </c>
-      <c r="S8" s="6">
-        <v>0.86880000000000002</v>
-      </c>
-      <c r="T8" s="6">
-        <v>0.90659999999999996</v>
-      </c>
-      <c r="U8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="4"/>
-    </row>
-    <row r="9" spans="1:30" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>18</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K9" s="3">
-        <v>32</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>VITWPT_db2_L3_P1_H18_E1_S0_B1000_D32_CIFAKE</v>
-      </c>
-      <c r="N9" s="4">
-        <v>207686</v>
-      </c>
-      <c r="O9" s="4">
-        <v>200</v>
-      </c>
-      <c r="P9" s="12">
-        <v>4.2245370370370371E-2</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>0.92420000000000002</v>
-      </c>
-      <c r="R9" s="3">
-        <v>176</v>
-      </c>
-      <c r="S9" s="6">
-        <v>0.92420000000000002</v>
-      </c>
-      <c r="T9" s="6">
-        <v>0.92359999999999998</v>
-      </c>
-      <c r="U9" s="4"/>
-      <c r="W9" s="4">
-        <v>50</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y9" s="12">
-        <v>4.7395833333333331E-2</v>
-      </c>
-      <c r="Z9" s="5">
-        <v>0.92510000000000003</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>210</v>
-      </c>
-      <c r="AB9" s="6">
-        <v>0.92510000000000003</v>
-      </c>
-      <c r="AC9" s="6">
-        <v>0.92720000000000002</v>
-      </c>
-      <c r="AD9" s="4" t="s">
+      <c r="O11" s="12">
+        <v>5.5694444444444442E-2</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0.89470000000000005</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>147</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0.89659999999999995</v>
+      </c>
+      <c r="S11" s="6">
+        <v>0.89559999999999995</v>
+      </c>
+      <c r="T11" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>18</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K10" s="3">
-        <v>32</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>VITWPT_db2_L3_P1_H18_E1_S1_B1000_D32_CIFAKE</v>
-      </c>
-      <c r="N10" s="4">
-        <v>201854</v>
-      </c>
-      <c r="O10" s="4">
-        <v>200</v>
-      </c>
-      <c r="P10" s="12">
-        <v>1.8425925925925925E-2</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="R10" s="3">
-        <v>190</v>
-      </c>
-      <c r="S10" s="6">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="T10" s="6">
-        <v>0.92049999999999998</v>
-      </c>
-      <c r="U10" s="4"/>
-      <c r="W10" s="4">
-        <v>50</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y10" s="12">
-        <v>2.2581018518518518E-2</v>
-      </c>
-      <c r="Z10" s="5">
-        <v>0.92059999999999997</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>205</v>
-      </c>
-      <c r="AB10" s="6">
-        <v>0.92059999999999997</v>
-      </c>
-      <c r="AC10" s="6">
-        <v>0.93210000000000004</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="3">
-        <v>3</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>18</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K11" s="3">
-        <v>32</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>VITWPT_db2_L3_P1_H18_E1_S0_B2000_D32_CIFAKE</v>
-      </c>
-      <c r="N11" s="4">
-        <v>207686</v>
-      </c>
-      <c r="O11" s="4">
-        <v>200</v>
-      </c>
-      <c r="P11" s="12">
-        <v>4.3564814814814813E-2</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>0.91459999999999997</v>
-      </c>
-      <c r="R11" s="3">
-        <v>200</v>
-      </c>
-      <c r="S11" s="6">
-        <v>0.91459999999999997</v>
-      </c>
-      <c r="T11" s="6">
-        <v>0.92230000000000001</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="W11" s="4">
-        <v>50</v>
-      </c>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="3"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="4"/>
+      <c r="AC11" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1511,7 +1552,7 @@
   <dimension ref="C4:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="F61" sqref="F61:G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,18 +1564,18 @@
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4" s="13"/>
       <c r="D4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>29</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="14">
         <v>50000</v>
@@ -1548,7 +1589,7 @@
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="14">
         <v>10000</v>
@@ -1562,7 +1603,7 @@
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="14">
         <v>10000</v>
@@ -1576,7 +1617,7 @@
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="16">
         <v>70000</v>
